--- a/tut05/output/0501EE25.xlsx
+++ b/tut05/output/0501EE25.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.122448979591837</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.545454545454546</v>
+        <v>7.55</v>
       </c>
       <c r="D6" t="n">
-        <v>7.869565217391305</v>
+        <v>7.87</v>
       </c>
       <c r="E6" t="n">
-        <v>8.195652173913043</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>7.769230769230769</v>
+        <v>7.77</v>
       </c>
       <c r="G6" t="n">
-        <v>6.725</v>
+        <v>6.72</v>
       </c>
       <c r="H6" t="n">
-        <v>6.395348837209302</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.473684210526316</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.122448979591837</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>7.849462365591398</v>
+        <v>7.85</v>
       </c>
       <c r="D8" t="n">
-        <v>7.856115107913669</v>
+        <v>7.86</v>
       </c>
       <c r="E8" t="n">
-        <v>7.940540540540541</v>
+        <v>7.94</v>
       </c>
       <c r="F8" t="n">
-        <v>7.910714285714286</v>
+        <v>7.91</v>
       </c>
       <c r="G8" t="n">
-        <v>7.731060606060606</v>
+        <v>7.73</v>
       </c>
       <c r="H8" t="n">
-        <v>7.543973941368078</v>
+        <v>7.54</v>
       </c>
       <c r="I8" t="n">
-        <v>7.315942028985507</v>
+        <v>7.32</v>
       </c>
     </row>
   </sheetData>
